--- a/testData/muleguard-reports/edgetest_config/report.xlsx
+++ b/testData/muleguard-reports/edgetest_config/report.xlsx
@@ -89,13 +89,13 @@
     <t>RULE-109</t>
   </si>
   <si>
-    <t>Forbidden regex pattern (ip addresses) check in .properties files</t>
+    <t>Optional regex pattern (ip addresses) check in .properties files</t>
   </si>
   <si>
     <t>RULE-110</t>
   </si>
   <si>
-    <t>Forbidden regex pattern (ip addresses) check in .policy files</t>
+    <t>Optional regex pattern (ip addresses) check in .policy files</t>
   </si>
   <si>
     <t>RULE-104</t>
@@ -208,7 +208,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.24609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.06640625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="81.59765625" customWidth="true" bestFit="true"/>
